--- a/medicine/Psychotrope/Les_Bootleggers/Les_Bootleggers.xlsx
+++ b/medicine/Psychotrope/Les_Bootleggers/Les_Bootleggers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bootleggers (titre original : White Lightning) est un film américain réalisé par Joseph Sargent, sorti en 1973.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jugé pour trafic de whisky, McKlusky est condamné à la prison. Au pénitencier, il apprend que son frère a été assassiné par le shérif Connors. Les autorités fédérales soupçonnent Connors de corruption et de trafic. McKlusky leur propose de démasquer le shérif en échange d'une remise de peine...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : White Lightning
 Réalisation : Joseph Sargent, assisté de Hal Needham
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Burt Reynolds (VF : Jacques Richard) : Gator McKlusky
 Ned Beatty (VF : William Sabatier) : Le shérif J.C. Connors
@@ -630,7 +648,9 @@
           <t>À noter</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Laura Dern, alors âgée de six ans, fait ici ses débuts d'actrice aux côtés de sa mère Diane Ladd. Elle y interprète Sharon-Anne, la fille de Maggie.
 Burt Reynolds reprendra son rôle trois ans plus tard dans une suite qu'il réalise, Gator.</t>
